--- a/Reliability_Row_data/static/src/modelfiles/Positions.xlsx
+++ b/Reliability_Row_data/static/src/modelfiles/Positions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="69">
   <si>
     <t>職等</t>
   </si>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -226,13 +230,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-404]General"/>
+    <numFmt numFmtId="176" formatCode="[$-404]General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -259,9 +263,16 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="1"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -311,9 +322,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -333,12 +344,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般_Sheet1" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -656,605 +717,718 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D34"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="13.546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="8"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="16.8">
+      <c r="A2" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="16.8">
+      <c r="A3" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" ht="16.8">
+      <c r="A4" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="16.8">
+      <c r="A5" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" ht="16.8">
+      <c r="A6" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" ht="16.8">
+      <c r="A7" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" ht="16.8">
+      <c r="A8" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" ht="16.8">
+      <c r="A9" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" ht="16.8">
+      <c r="A10" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" ht="16.8">
+      <c r="A11" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" ht="16.8">
+      <c r="A12" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" ht="16.8">
+      <c r="A13" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" ht="16.8">
+      <c r="A14" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" ht="16.8">
+      <c r="A15" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" ht="16.8">
+      <c r="A16" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" ht="16.8">
+      <c r="A17" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D17" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" ht="16.8">
+      <c r="A18" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" ht="16.8">
+      <c r="A19" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D19" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" ht="16.8">
+      <c r="A20" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D20" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" ht="16.8">
+      <c r="A21" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D21" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:6" ht="16.8">
+      <c r="A22" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:6" ht="16.8">
+      <c r="A23" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="5">
+      <c r="C23" s="5">
         <v>8</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:6" ht="16.8">
+      <c r="A24" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D24" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:6" ht="16.8">
+      <c r="A25" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D25" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" ht="16.8">
+      <c r="A26" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="5">
+      <c r="C26" s="5">
         <v>11</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D26" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:6" ht="16.8">
+      <c r="A27" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="5">
+      <c r="C27" s="5">
         <v>12</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D27" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:6" ht="16.8">
+      <c r="A28" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="5">
+      <c r="C28" s="5">
         <v>13</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D28" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:6" ht="16.8">
+      <c r="A29" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="5">
+      <c r="C29" s="5">
         <v>14</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D29" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:6" ht="16.8">
+      <c r="A30" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="5">
+      <c r="C30" s="5">
         <v>15</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D30" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:6" ht="16.8">
+      <c r="A31" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="5">
+      <c r="C31" s="5">
         <v>18</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D31" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:6" ht="16.8">
+      <c r="A32" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="5">
+      <c r="C32" s="5">
         <v>19</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D32" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:6" ht="16.8">
+      <c r="A33" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="5">
+      <c r="C33" s="5">
         <v>23</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D33" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:6" ht="16.8">
+      <c r="A34" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="5">
+      <c r="C34" s="5">
         <v>24</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
       <formula>"轉部門"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"離職"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"轉部門"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"離職"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Reliability_Row_data/static/src/modelfiles/Positions.xlsx
+++ b/Reliability_Row_data/static/src/modelfiles/Positions.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -359,27 +359,7 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般_Sheet1" xfId="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -720,12 +700,12 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A3" sqref="A3:A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="8"/>
+    <col min="1" max="1" width="8.83203125" style="8"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47" bestFit="1" customWidth="1"/>
   </cols>
@@ -750,9 +730,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.8">
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>5</v>
@@ -770,9 +750,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.8">
+    <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>5</v>
@@ -790,9 +770,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.8">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -810,9 +790,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.8">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>10</v>
@@ -830,9 +810,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.8">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>14</v>
@@ -850,9 +830,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.8">
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>14</v>
@@ -870,9 +850,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.8">
+    <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>14</v>
@@ -890,9 +870,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.8">
+    <row r="9" spans="1:6" ht="16.5">
       <c r="A9" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -910,9 +890,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.8">
+    <row r="10" spans="1:6" ht="16.5">
       <c r="A10" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>19</v>
@@ -930,9 +910,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.8">
+    <row r="11" spans="1:6" ht="16.5">
       <c r="A11" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>19</v>
@@ -950,9 +930,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.8">
+    <row r="12" spans="1:6" ht="16.5">
       <c r="A12" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -970,9 +950,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.8">
+    <row r="13" spans="1:6" ht="16.5">
       <c r="A13" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>19</v>
@@ -990,9 +970,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.8">
+    <row r="14" spans="1:6" ht="16.5">
       <c r="A14" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>26</v>
@@ -1010,9 +990,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.8">
+    <row r="15" spans="1:6" ht="16.5">
       <c r="A15" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>26</v>
@@ -1030,9 +1010,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.8">
+    <row r="16" spans="1:6" ht="16.5">
       <c r="A16" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>26</v>
@@ -1050,9 +1030,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.8">
+    <row r="17" spans="1:6" ht="16.5">
       <c r="A17" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>30</v>
@@ -1070,9 +1050,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.8">
+    <row r="18" spans="1:6" ht="16.5">
       <c r="A18" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>30</v>
@@ -1090,9 +1070,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.8">
+    <row r="19" spans="1:6" ht="16.5">
       <c r="A19" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>30</v>
@@ -1110,9 +1090,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.8">
+    <row r="20" spans="1:6" ht="16.5">
       <c r="A20" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>30</v>
@@ -1130,9 +1110,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.8">
+    <row r="21" spans="1:6" ht="16.5">
       <c r="A21" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>35</v>
@@ -1150,9 +1130,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.8">
+    <row r="22" spans="1:6" ht="16.5">
       <c r="A22" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>35</v>
@@ -1170,9 +1150,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.8">
+    <row r="23" spans="1:6" ht="16.5">
       <c r="A23" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>38</v>
@@ -1190,9 +1170,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.8">
+    <row r="24" spans="1:6" ht="16.5">
       <c r="A24" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>39</v>
@@ -1210,9 +1190,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.8">
+    <row r="25" spans="1:6" ht="16.5">
       <c r="A25" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>39</v>
@@ -1230,9 +1210,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.8">
+    <row r="26" spans="1:6" ht="16.5">
       <c r="A26" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>53</v>
@@ -1250,9 +1230,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.8">
+    <row r="27" spans="1:6" ht="16.5">
       <c r="A27" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>53</v>
@@ -1270,9 +1250,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16.8">
+    <row r="28" spans="1:6" ht="16.5">
       <c r="A28" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>53</v>
@@ -1290,9 +1270,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16.8">
+    <row r="29" spans="1:6" ht="16.5">
       <c r="A29" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>53</v>
@@ -1310,9 +1290,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.8">
+    <row r="30" spans="1:6" ht="16.5">
       <c r="A30" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>53</v>
@@ -1330,9 +1310,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.8">
+    <row r="31" spans="1:6" ht="16.5">
       <c r="A31" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>55</v>
@@ -1350,9 +1330,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16.8">
+    <row r="32" spans="1:6" ht="16.5">
       <c r="A32" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>55</v>
@@ -1370,9 +1350,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16.8">
+    <row r="33" spans="1:6" ht="16.5">
       <c r="A33" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>57</v>
@@ -1390,9 +1370,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16.8">
+    <row r="34" spans="1:6" ht="16.5">
       <c r="A34" s="9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>57</v>
@@ -1413,18 +1393,18 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"轉部門"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"離職"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"轉部門"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"離職"</formula>
     </cfRule>
   </conditionalFormatting>
